--- a/Bronsted.xlsx
+++ b/Bronsted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Dropbox\3-Projetos\AlfaDist-Py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Dropbox\3-Projetos\Python\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4BCCC8-68A4-4FC9-AE85-AF62D71CCA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927F3D6-2EE4-4988-9A35-F9ADCA54EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{961EFDE0-D947-45DD-9D74-B0398F440527}"/>
   </bookViews>
@@ -19,13 +19,13 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="amonio">Dados!$E$8</definedName>
-    <definedName name="anilina">Dados!$E$9</definedName>
+    <definedName name="amonio">Dados!#REF!</definedName>
+    <definedName name="anilina">Dados!$E$6</definedName>
     <definedName name="Cante">[1]DDE!#REF!</definedName>
-    <definedName name="carbonato">Dados!$E$4</definedName>
-    <definedName name="citrato">Dados!$E$21:$G$21</definedName>
-    <definedName name="HAc">Dados!$E$5</definedName>
-    <definedName name="histidina">Dados!$E$43:$G$43</definedName>
+    <definedName name="carbonato">Dados!$E$3</definedName>
+    <definedName name="citrato">Dados!$E$18:$G$18</definedName>
+    <definedName name="HAc">Dados!$E$4</definedName>
+    <definedName name="histidina">Dados!$E$40:$G$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
     <author>1</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{94314EB0-CEE1-4D8F-B1E0-CFA4D1B56BC4}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{94314EB0-CEE1-4D8F-B1E0-CFA4D1B56BC4}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{247E23BC-21F4-4759-A4A4-BC44B980F260}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{247E23BC-21F4-4759-A4A4-BC44B980F260}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{DF2CAE49-66DD-4BF3-9B83-65244160A5EA}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DF2CAE49-66DD-4BF3-9B83-65244160A5EA}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{AC73FB6F-F037-4587-9D24-8C5749B84284}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{AC73FB6F-F037-4587-9D24-8C5749B84284}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>sistema</t>
   </si>
@@ -169,18 +169,6 @@
   </si>
   <si>
     <t>HARRIS MARTEL SMITH</t>
-  </si>
-  <si>
-    <t>Al (3+)</t>
-  </si>
-  <si>
-    <t>LANGES</t>
-  </si>
-  <si>
-    <t>Al(III) (sem efeito precipitado)</t>
-  </si>
-  <si>
-    <t>CRC</t>
   </si>
   <si>
     <t>Alanina</t>
@@ -934,12 +922,10 @@
   <sheetPr codeName="Plan4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P95"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="930" topLeftCell="A10"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1075,53 +1061,82 @@
     <col min="16130" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-7</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="7">
+        <f>IF(SUM(B2,D2)&lt;&gt;COUNT(E2:L2),"ATENCAO",)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -1133,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>-7</v>
+        <v>17.997</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1148,9 +1163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -1162,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>17.997</v>
+        <v>4.76</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1176,140 +1191,133 @@
         <f>IF(SUM(B4,D4)&lt;&gt;COUNT(E4:L4),"ATENCAO",)</f>
         <v>0</v>
       </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>4.76</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12.009999999999998</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="7">
-        <f>IF(SUM(B5,D5)&lt;&gt;COUNT(E5:L5),"ATENCAO",)</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <f>COUNT(E5:L5)-SUM(B5,D5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>12</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.3479999999999999</v>
       </c>
       <c r="F6" s="6">
-        <v>12.009999999999998</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <f>COUNT(E6:L6)-SUM(B6,D6)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="8">
-        <v>2</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:N14" si="0">IF(SUM(B6,D6)&lt;&gt;COUNT(E6:L6),"ATENCAO",)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5.3550000000000004</v>
-      </c>
-      <c r="G7" s="6">
-        <v>5.69</v>
-      </c>
-      <c r="H7" s="6">
-        <v>8.34</v>
-      </c>
-      <c r="I7" s="6">
-        <v>10.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="7">
-        <f>IF(SUM(B7,D7)&lt;&gt;COUNT(E7:L7),"ATENCAO",)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="M7" s="4">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
         <v>3</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
         <v>5.0199999999999996</v>
       </c>
       <c r="F8" s="6">
-        <v>5.3550000000000004</v>
+        <v>5.36</v>
       </c>
       <c r="G8" s="6">
         <v>5.69</v>
@@ -1324,17 +1332,20 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1343,14 +1354,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2.3479999999999999</v>
-      </c>
-      <c r="F9" s="6">
-        <v>9.8670000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>9.24</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1359,33 +1368,35 @@
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:N17" si="0">IF(SUM(B9,D9)&lt;&gt;COUNT(E9:L9),"ATENCAO",)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
-        <v>3.39</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6">
+        <v>4.78</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9.9700000000000006</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1393,38 +1404,30 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5.36</v>
-      </c>
-      <c r="G11" s="6">
-        <v>5.69</v>
-      </c>
-      <c r="H11" s="6">
-        <v>8.34</v>
-      </c>
-      <c r="I11" s="6">
-        <v>10.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.66</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1434,30 +1437,34 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>9.24</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+        <v>1.823</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.9909999999999997</v>
+      </c>
+      <c r="G12" s="6">
+        <v>12.48</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1468,16 +1475,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="2">
-        <v>7</v>
+      <c r="O12" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1486,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>4.78</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.14</v>
       </c>
       <c r="F13" s="6">
-        <v>9.9700000000000006</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1500,14 +1507,21 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="4">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -1516,13 +1530,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.66</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10.002000000000001</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1533,71 +1551,55 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="2">
-        <v>8</v>
-      </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>1.823</v>
+        <v>13.36</v>
       </c>
       <c r="F15" s="6">
-        <v>8.9909999999999997</v>
-      </c>
-      <c r="G15" s="6">
-        <v>12.48</v>
-      </c>
+        <v>24.36</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="F16" s="6">
-        <v>8.7200000000000006</v>
-      </c>
+        <v>4.202</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1606,14 +1608,8 @@
       <c r="L16" s="6"/>
       <c r="M16" s="4"/>
       <c r="N16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>9</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>37</v>
+        <f>IF(SUM(B16,D16)&lt;&gt;COUNT(E16:L16),"ATENCAO",)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1627,17 +1623,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1.99</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3.9990000000000001</v>
-      </c>
-      <c r="G17" s="6">
-        <v>10.002000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1645,163 +1637,172 @@
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
       <c r="N17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
+        <f>IF(SUM(B17,D17)&lt;&gt;COUNT(E17:L17),"ATENCAO",)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <f>1*13.2/65</f>
+        <v>0.20307692307692307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>13.36</v>
-      </c>
-      <c r="F18" s="6">
-        <v>24.36</v>
-      </c>
+        <v>9.234</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="7">
+        <f>IF(SUM(B18,D18)&lt;&gt;COUNT(E18:L18),"ATENCAO",)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>4.202</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="A19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12.67</v>
+      </c>
+      <c r="F19" s="6">
+        <v>14</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="7">
-        <f>IF(SUM(B19,D19)&lt;&gt;COUNT(E19:L19),"ATENCAO",)</f>
-        <v>0</v>
-      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="6">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10.329000000000001</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <v>2</v>
+      </c>
       <c r="N20" s="7">
         <f>IF(SUM(B20,D20)&lt;&gt;COUNT(E20:L20),"ATENCAO",)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="2">
-        <f>1*13.2/65</f>
-        <v>0.20307692307692307</v>
-      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
+      <c r="A21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>9.234</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>10.08</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10.27</v>
+      </c>
+      <c r="G21" s="6">
+        <v>12.95</v>
+      </c>
+      <c r="H21" s="6">
+        <v>14.05</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="7">
-        <f>IF(SUM(B21,D21)&lt;&gt;COUNT(E21:L21),"ATENCAO",)</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
+      <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
       </c>
       <c r="E22" s="6">
-        <v>12.67</v>
+        <v>1.71</v>
       </c>
       <c r="F22" s="6">
-        <v>14</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>8.36</v>
+      </c>
+      <c r="G22" s="6">
+        <v>10.77</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="7">
+        <f t="shared" ref="N22:N59" si="1">IF(SUM(B22,D22)&lt;&gt;COUNT(E22:L22),"ATENCAO",)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
@@ -1810,17 +1811,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6">
-        <v>6.3520000000000003</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F23" s="6">
-        <v>10.329000000000001</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>4.7610000000000001</v>
+      </c>
+      <c r="G23" s="6">
+        <v>6.3959999999999999</v>
+      </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1828,105 +1831,104 @@
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <f>IF(SUM(B23,D23)&lt;&gt;COUNT(E23:L23),"ATENCAO",)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>10.08</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10.27</v>
-      </c>
-      <c r="G24" s="6">
-        <v>12.95</v>
-      </c>
-      <c r="H24" s="6">
-        <v>14.05</v>
-      </c>
+        <v>1.95</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1.71</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>4</v>
       </c>
       <c r="F25" s="6">
-        <v>8.36</v>
+        <v>5.62</v>
       </c>
       <c r="G25" s="6">
-        <v>10.77</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>7.13</v>
+      </c>
+      <c r="H25" s="6">
+        <v>11.02</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="4"/>
       <c r="N25" s="7">
-        <f t="shared" ref="N25:N62" si="1">IF(SUM(B25,D25)&lt;&gt;COUNT(E25:L25),"ATENCAO",)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="6">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3.1280000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>7.64</v>
       </c>
       <c r="F26" s="6">
-        <v>4.7610000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G26" s="6">
-        <v>6.3959999999999999</v>
-      </c>
-      <c r="H26" s="6"/>
+        <v>10.36</v>
+      </c>
+      <c r="H26" s="6">
+        <v>13.1</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="4">
-        <v>2</v>
-      </c>
+      <c r="M26" s="4"/>
       <c r="N26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1934,19 +1936,19 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>1.95</v>
+        <v>11.11</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1963,29 +1965,23 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14">
-        <v>4</v>
-      </c>
-      <c r="F28" s="6">
-        <v>5.62</v>
-      </c>
-      <c r="G28" s="6">
-        <v>7.13</v>
-      </c>
-      <c r="H28" s="6">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10.72</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -1998,7 +1994,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
@@ -2007,22 +2003,26 @@
         <v>2</v>
       </c>
       <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="14">
-        <v>7.64</v>
+        <v>4</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="G29" s="6">
-        <v>10.36</v>
+        <v>1.5</v>
+      </c>
+      <c r="G29" s="15">
+        <v>2</v>
       </c>
       <c r="H29" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="I29" s="6">
+        <v>6.1609999999999996</v>
+      </c>
+      <c r="J29" s="6">
+        <v>10.26</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
@@ -2033,19 +2033,19 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="6">
-        <v>11.11</v>
+      <c r="E30" s="16">
+        <v>9.4979999999999993</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>10.72</v>
+        <v>10.75</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6">
         <v>2</v>
@@ -2100,26 +2100,18 @@
         <v>2</v>
       </c>
       <c r="D32" s="6">
-        <v>4</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>6.8479999999999999</v>
       </c>
       <c r="F32" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G32" s="15">
-        <v>2</v>
-      </c>
-      <c r="H32" s="6">
-        <v>2.6779999999999999</v>
-      </c>
-      <c r="I32" s="6">
-        <v>6.1609999999999996</v>
-      </c>
-      <c r="J32" s="6">
-        <v>10.26</v>
-      </c>
+        <v>9.9280000000000008</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
@@ -2130,57 +2122,74 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="16">
-        <v>9.4979999999999993</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="F33" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="G33" s="6">
+        <v>11.07</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N33" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O33" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="6">
-        <v>10.75</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+        <v>2.19</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3.31</v>
+      </c>
+      <c r="G34" s="6">
+        <v>6.62</v>
+      </c>
+      <c r="H34" s="6">
+        <v>9.39</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="4"/>
+      <c r="M34" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2188,23 +2197,21 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
         <v>0</v>
       </c>
       <c r="E35" s="6">
-        <v>6.8479999999999999</v>
-      </c>
-      <c r="F35" s="6">
-        <v>9.9280000000000008</v>
-      </c>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2219,73 +2226,60 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
-      <c r="E36" s="6">
-        <v>6.7</v>
+      <c r="E36" s="14">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F36" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="G36" s="6">
-        <v>11.07</v>
-      </c>
+        <v>9.31</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="E37" s="6">
-        <v>2.19</v>
-      </c>
-      <c r="F37" s="6">
-        <v>3.31</v>
-      </c>
-      <c r="G37" s="6">
-        <v>6.62</v>
-      </c>
-      <c r="H37" s="6">
-        <v>9.39</v>
-      </c>
+        <v>9.9969999999999999</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="4" t="s">
-        <v>59</v>
+      <c r="M37" s="4">
+        <v>2</v>
       </c>
       <c r="N37" s="7">
         <f t="shared" si="1"/>
@@ -2294,19 +2288,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
       </c>
       <c r="D38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="6">
-        <v>4.8600000000000003</v>
+        <v>3.17</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2315,7 +2309,9 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="4">
+        <v>2</v>
+      </c>
       <c r="N38" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2323,24 +2319,26 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14">
-        <v>2.2000000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1.9590000000000001</v>
       </c>
       <c r="F39" s="6">
-        <v>9.31</v>
-      </c>
-      <c r="G39" s="6"/>
+        <v>7.125</v>
+      </c>
+      <c r="G39" s="6">
+        <v>12.23</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -2354,7 +2352,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -2363,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="D40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="6">
-        <v>9.9969999999999999</v>
-      </c>
-      <c r="F40" s="6"/>
+        <v>2.96</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5.41</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="4">
-        <v>2</v>
-      </c>
+      <c r="M40" s="4"/>
       <c r="N40" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2385,7 +2383,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -2394,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="6">
-        <v>3.17</v>
-      </c>
-      <c r="F41" s="6"/>
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4.4939999999999998</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="4">
-        <v>2</v>
-      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2416,26 +2414,24 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="6">
-        <v>3</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1.9590000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2.35</v>
       </c>
       <c r="F42" s="6">
-        <v>7.125</v>
-      </c>
-      <c r="G42" s="6">
-        <v>12.23</v>
-      </c>
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -2449,7 +2445,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -2458,14 +2454,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="6">
-        <v>2.96</v>
-      </c>
-      <c r="F43" s="6">
-        <v>5.41</v>
-      </c>
+        <v>3.831</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -2480,25 +2474,29 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="6">
-        <v>3.0529999999999999</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6">
-        <v>4.4939999999999998</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+        <v>2.6</v>
+      </c>
+      <c r="G44" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="H44" s="6">
+        <v>10.6</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -2511,7 +2509,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -2520,15 +2518,17 @@
         <v>1</v>
       </c>
       <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10">
-        <v>2.35</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2.23</v>
       </c>
       <c r="F45" s="6">
-        <v>9.7780000000000005</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>4.42</v>
+      </c>
+      <c r="G45" s="6">
+        <v>9.9499999999999993</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -2542,19 +2542,19 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>3.831</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>13.54</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2571,29 +2571,27 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
       </c>
       <c r="E47" s="6">
-        <v>1</v>
+        <v>2.88</v>
       </c>
       <c r="F47" s="6">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="G47" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="H47" s="6">
-        <v>10.6</v>
-      </c>
+        <v>7.13</v>
+      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -2606,36 +2604,35 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
       <c r="D48" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
-        <v>2.23</v>
+        <v>0.73</v>
       </c>
       <c r="F48" s="6">
-        <v>4.42</v>
+        <v>3.15</v>
       </c>
       <c r="G48" s="6">
-        <v>9.9499999999999993</v>
+        <v>7.54</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="M48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
@@ -2648,12 +2645,14 @@
         <v>1</v>
       </c>
       <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>13.54</v>
-      </c>
-      <c r="F49" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>4.91</v>
+      </c>
+      <c r="F49" s="6">
+        <v>9.81</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -2671,23 +2670,19 @@
         <v>74</v>
       </c>
       <c r="B50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" s="6">
-        <v>2.88</v>
-      </c>
-      <c r="F50" s="6">
-        <v>4.75</v>
-      </c>
-      <c r="G50" s="6">
-        <v>7.13</v>
-      </c>
+        <v>6.04</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -2704,53 +2699,54 @@
         <v>75</v>
       </c>
       <c r="B51" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="F51" s="6">
-        <v>3.15</v>
-      </c>
-      <c r="G51" s="6">
-        <v>7.54</v>
-      </c>
+        <v>7.53</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N51" s="7"/>
+      <c r="M51" s="4">
+        <v>2</v>
+      </c>
+      <c r="N51" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
       </c>
       <c r="E52" s="6">
-        <v>4.91</v>
+        <v>1.7</v>
       </c>
       <c r="F52" s="6">
-        <v>9.81</v>
-      </c>
-      <c r="G52" s="6"/>
+        <v>6.02</v>
+      </c>
+      <c r="G52" s="6">
+        <v>9.08</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -2764,7 +2760,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="6">
         <v>1</v>
@@ -2773,13 +2769,17 @@
         <v>1</v>
       </c>
       <c r="D53" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="6">
-        <v>6.04</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+        <v>1.82</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2.84</v>
+      </c>
+      <c r="G53" s="6">
+        <v>9.7899999999999991</v>
+      </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -2793,30 +2793,30 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
       </c>
       <c r="E54" s="6">
-        <v>7.53</v>
-      </c>
-      <c r="F54" s="6"/>
+        <v>2.319</v>
+      </c>
+      <c r="F54" s="6">
+        <v>9.7539999999999996</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="4">
-        <v>2</v>
-      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2824,26 +2824,24 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
       </c>
       <c r="E55" s="6">
-        <v>1.7</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="F55" s="6">
-        <v>6.02</v>
-      </c>
-      <c r="G55" s="6">
-        <v>9.08</v>
-      </c>
+        <v>9.7469999999999999</v>
+      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -2857,25 +2855,25 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
       </c>
       <c r="D56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="6">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="F56" s="6">
-        <v>2.84</v>
+        <v>9.08</v>
       </c>
       <c r="G56" s="6">
-        <v>9.7899999999999991</v>
+        <v>10.69</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -2890,22 +2888,22 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6">
-        <v>2.319</v>
+        <v>2</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1.91</v>
       </c>
       <c r="F57" s="6">
-        <v>9.7539999999999996</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2921,7 +2919,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
@@ -2930,14 +2928,12 @@
         <v>1</v>
       </c>
       <c r="D58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="6">
-        <v>2.3290000000000002</v>
-      </c>
-      <c r="F58" s="6">
-        <v>9.7469999999999999</v>
-      </c>
+        <v>10.7</v>
+      </c>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -2952,10 +2948,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="6">
         <v>1</v>
@@ -2963,15 +2959,13 @@
       <c r="D59" s="6">
         <v>1</v>
       </c>
-      <c r="E59" s="6">
-        <v>2.04</v>
+      <c r="E59" s="14">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F59" s="6">
-        <v>9.08</v>
-      </c>
-      <c r="G59" s="6">
-        <v>10.69</v>
-      </c>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2984,23 +2978,23 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="6">
-        <v>0</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6">
-        <v>2</v>
-      </c>
-      <c r="E60" s="10">
-        <v>1.91</v>
+      <c r="A60" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>11.44</v>
       </c>
       <c r="F60" s="6">
-        <v>6.3319999999999999</v>
+        <v>16.86</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -3008,60 +3002,56 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="M60" s="12"/>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>86</v>
+      <c r="A61" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="6">
-        <v>10.7</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+        <v>9.0300000000000011</v>
+      </c>
+      <c r="F61" s="6">
+        <v>10.419999999999998</v>
+      </c>
+      <c r="G61" s="6">
+        <v>15.280000000000001</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="M61" s="12"/>
+      <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
       </c>
-      <c r="E62" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F62" s="6">
-        <v>9.0500000000000007</v>
-      </c>
+      <c r="E62" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -3070,28 +3060,28 @@
       <c r="L62" s="6"/>
       <c r="M62" s="4"/>
       <c r="N62" s="7">
-        <f t="shared" si="1"/>
+        <f>IF(SUM(B62,D62)&lt;&gt;COUNT(E62:L62),"ATENCAO",)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0</v>
+      <c r="A63" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2</v>
       </c>
       <c r="E63" s="6">
-        <v>11.44</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="F63" s="6">
-        <v>16.86</v>
+        <v>4.266</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -3099,32 +3089,37 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="5"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="7">
+        <f>IF(SUM(B63,D63)&lt;&gt;COUNT(E63:L63),"ATENCAO",)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="6">
-        <v>2</v>
-      </c>
-      <c r="C64" s="6">
-        <v>2</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2</v>
       </c>
       <c r="E64" s="6">
-        <v>9.0300000000000011</v>
+        <v>7.71</v>
       </c>
       <c r="F64" s="6">
-        <v>10.419999999999998</v>
+        <v>9.41</v>
       </c>
       <c r="G64" s="6">
-        <v>15.280000000000001</v>
-      </c>
-      <c r="H64" s="6"/>
+        <v>10.94</v>
+      </c>
+      <c r="H64" s="6">
+        <v>11.64</v>
+      </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3134,21 +3129,23 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
-        <v>3.15</v>
-      </c>
-      <c r="F65" s="6"/>
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="F65" s="6">
+        <v>9.7309999999999999</v>
+      </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -3157,29 +3154,27 @@
       <c r="L65" s="6"/>
       <c r="M65" s="4"/>
       <c r="N65" s="7">
-        <f>IF(SUM(B65,D65)&lt;&gt;COUNT(E65:L65),"ATENCAO",)</f>
+        <f t="shared" ref="N65:N82" si="2">IF(SUM(B65,D65)&lt;&gt;COUNT(E65:L65),"ATENCAO",)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="F66" s="6">
-        <v>4.266</v>
-      </c>
+        <v>11.122999999999999</v>
+      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -3188,76 +3183,77 @@
       <c r="L66" s="6"/>
       <c r="M66" s="4"/>
       <c r="N66" s="7">
-        <f>IF(SUM(B66,D66)&lt;&gt;COUNT(E66:L66),"ATENCAO",)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="5">
-        <v>2</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2</v>
-      </c>
-      <c r="D67" s="5">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
       </c>
       <c r="E67" s="6">
-        <v>7.71</v>
-      </c>
-      <c r="F67" s="6">
-        <v>9.41</v>
-      </c>
-      <c r="G67" s="6">
-        <v>10.94</v>
-      </c>
-      <c r="H67" s="6">
-        <v>11.64</v>
-      </c>
+        <v>5.15</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="5"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E68" s="6">
-        <v>5.3330000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="F68" s="6">
-        <v>9.7309999999999999</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G68" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="H68" s="6">
+        <v>9.4</v>
+      </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="4"/>
       <c r="N68" s="7">
-        <f t="shared" ref="N68:N85" si="2">IF(SUM(B68,D68)&lt;&gt;COUNT(E68:L68),"ATENCAO",)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="6">
         <v>1</v>
@@ -3266,12 +3262,14 @@
         <v>1</v>
       </c>
       <c r="D69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="6">
-        <v>11.122999999999999</v>
-      </c>
-      <c r="F69" s="6"/>
+        <v>1.952</v>
+      </c>
+      <c r="F69" s="6">
+        <v>10.64</v>
+      </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -3284,9 +3282,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="6">
         <v>1</v>
@@ -3295,12 +3293,14 @@
         <v>1</v>
       </c>
       <c r="D70" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="6">
-        <v>5.15</v>
-      </c>
-      <c r="F70" s="6"/>
+        <v>2.1869999999999998</v>
+      </c>
+      <c r="F70" s="6">
+        <v>9.2089999999999996</v>
+      </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="6">
         <v>0</v>
@@ -3324,20 +3324,16 @@
         <v>0</v>
       </c>
       <c r="D71" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" s="6">
-        <v>0.8</v>
+        <v>-3</v>
       </c>
       <c r="F71" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G71" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="H71" s="6">
-        <v>9.4</v>
-      </c>
+        <v>1.92082</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -3350,22 +3346,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="6">
-        <v>1</v>
-      </c>
-      <c r="E72" s="6">
-        <v>1.952</v>
+        <v>2</v>
+      </c>
+      <c r="E72" s="14">
+        <v>7.02</v>
       </c>
       <c r="F72" s="6">
-        <v>10.64</v>
+        <v>13.9</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -3381,22 +3377,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="6">
-        <v>2.1869999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="F73" s="6">
-        <v>9.2089999999999996</v>
+        <v>7.21</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -3412,7 +3408,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -3424,10 +3420,10 @@
         <v>2</v>
       </c>
       <c r="E74" s="6">
-        <v>-3</v>
+        <v>3.03</v>
       </c>
       <c r="F74" s="6">
-        <v>1.92082</v>
+        <v>4.54</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -3442,134 +3438,110 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1">
+        <v>5</v>
+      </c>
+      <c r="H75" s="1">
+        <v>7</v>
+      </c>
+      <c r="I75" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="J75" s="1">
+        <v>9</v>
+      </c>
+      <c r="M75" s="17"/>
+      <c r="N75" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="6">
-        <v>0</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6">
-        <v>2</v>
-      </c>
-      <c r="E75" s="14">
-        <v>7.02</v>
-      </c>
-      <c r="F75" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="7">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="F76" s="1">
+        <v>9.19</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10.47</v>
+      </c>
+      <c r="M76" s="17"/>
+      <c r="N76" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="6">
-        <v>0</v>
-      </c>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6">
-        <v>2</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1.89</v>
-      </c>
-      <c r="F76" s="6">
-        <v>7.21</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="6">
-        <v>0</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2</v>
-      </c>
-      <c r="E77" s="6">
-        <v>3.03</v>
-      </c>
-      <c r="F77" s="6">
-        <v>4.54</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="7">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="F77" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="M77" s="17"/>
+      <c r="N77" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>3</v>
-      </c>
-      <c r="G78" s="1">
-        <v>5</v>
-      </c>
-      <c r="H78" s="1">
-        <v>7</v>
-      </c>
-      <c r="I78" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="J78" s="1">
-        <v>9</v>
-      </c>
-      <c r="K78" s="1">
-        <v>10</v>
-      </c>
-      <c r="L78" s="1">
-        <v>11</v>
+        <v>7.7619999999999996</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="8">
@@ -3579,7 +3551,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3588,16 +3560,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="F79" s="1">
-        <v>9.19</v>
-      </c>
-      <c r="G79" s="1">
-        <v>10.47</v>
+        <v>10.762</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="8">
@@ -3607,7 +3573,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -3619,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="F80" s="18">
-        <v>9.1</v>
+        <v>2.35</v>
+      </c>
+      <c r="F80" s="1">
+        <v>9.33</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="8">
@@ -3632,23 +3598,24 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>8.0749999999999993</v>
+      </c>
+      <c r="M81" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="1">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1">
-        <v>7.7619999999999996</v>
-      </c>
-      <c r="M81" s="17"/>
       <c r="N81" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3663,10 +3630,13 @@
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>10.762</v>
+        <v>2.286</v>
+      </c>
+      <c r="F82" s="1">
+        <v>9.718</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="8">
@@ -3675,103 +3645,39 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1">
-        <v>2.35</v>
+        <v>9.6</v>
       </c>
       <c r="F83" s="1">
-        <v>9.33</v>
-      </c>
-      <c r="M83" s="17"/>
-      <c r="N83" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="H83" s="1">
+        <v>10.48</v>
+      </c>
+      <c r="M83" s="20"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="1">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>8.0749999999999993</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="N84" s="8">
-        <v>0</v>
-      </c>
+      <c r="M84" s="20"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2.286</v>
-      </c>
-      <c r="F85" s="1">
-        <v>9.718</v>
-      </c>
-      <c r="M85" s="17"/>
-      <c r="N85" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="M85" s="20"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="1">
-        <v>2</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="F86" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="G86" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="H86" s="1">
-        <v>10.48</v>
-      </c>
       <c r="M86" s="20"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -3791,15 +3697,6 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M92" s="20"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M93" s="20"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M94" s="20"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M95" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
